--- a/medicine/Psychotrope/Brauerei_Lüdde/Brauerei_Lüdde.xlsx
+++ b/medicine/Psychotrope/Brauerei_Lüdde/Brauerei_Lüdde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brauerei_L%C3%BCdde</t>
+          <t>Brauerei_Lüdde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Lüdde est une brasserie à Quedlinbourg.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brauerei_L%C3%BCdde</t>
+          <t>Brauerei_Lüdde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie de bière brune Schreibersche est fondée en 1807 sur le site de la brasserie actuelle. L'entreprise est reprise en 1876 par Carl-Friedrich Lüdde de Schöningen. Il érige les bâtiments qui existent encore aujourd'hui. Une inscription du bâtiment fait référence à l'année de construction 1876. De la bière brune est brassée. Les clients, à qui la bière est livrée à cheval et en charrette, doivent mélanger la bière non mûre avec de l'eau, la verser dans des bouteilles à couvercle basculant, puis la laisser mûrir pendant quelques jours. Le nom de Pubarschbang devient populaire et est toujours utilisé pour commercialiser la bière aujourd'hui.
 La brasserie s'agrandit et fournit des clients dans un rayon d'environ 60 kilomètres dans les années 1930. Les clients sont approvisionnés à Magdebourg et Nordhausen ainsi qu'à Eichsfeld. Quatre calèches et 14 petits camions sont disponibles pour la livraison.
